--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -1196,9 +1196,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1278,6 +1278,11 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="10"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1295,8 +1300,8 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -212,14 +212,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,187 +382,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,10 +679,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,16 +691,16 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,10 +713,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,88 +737,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,7 +1196,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
@@ -1278,11 +1278,6 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="10"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
     <sheet name="外链" sheetId="3" r:id="rId2"/>
+    <sheet name="可写博客内容" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -51,6 +52,15 @@
   </si>
   <si>
     <t>https://th.wikipedia.org/wiki/%E0%B9%80%E0%B8%88%E0%B8%8B%E0%B8%B1%E0%B8%99</t>
+  </si>
+  <si>
+    <t>ja.wikipedia.org/wiki/JSON_Web_Token</t>
+  </si>
+  <si>
+    <t>https://sv.wikipedia.org/wiki/JSON</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Microsoft_Office_XML</t>
   </si>
   <si>
     <t>目标网站</t>
@@ -75,7 +85,42 @@
 已给站长发邮件了，等消息</t>
   </si>
   <si>
+    <t>https://techcommunity.microsoft.com/</t>
+  </si>
+  <si>
+    <t>https://geekflare.com/json-online-tools/</t>
+  </si>
+  <si>
+    <t>介绍JSON工具。 文章可以借鉴</t>
+  </si>
+  <si>
     <t>https://stackoverflow.com/questions/1560464/how-to-reformat-json-in-notepad  </t>
+  </si>
+  <si>
+    <t>https://wiki.selfhtml.org/wiki/JSON</t>
+  </si>
+  <si>
+    <r>
+      <t>介绍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的文章，可以借鉴</t>
+    </r>
   </si>
   <si>
     <t>mkyong.com/java/how-to-enable-pretty-print-json-output-jackson/  </t>
@@ -167,18 +212,56 @@
   <si>
     <t>https://echoua.com/best-online-web-editors/  </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务具体一些操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程等</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +295,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0070C0"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +309,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,45 +344,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,74 +449,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -382,31 +471,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,19 +573,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,127 +603,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,32 +668,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,26 +689,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +730,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -673,157 +747,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,6 +926,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -845,11 +938,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1199,7 +1289,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1208,81 +1298,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10"/>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="https://ko.wikipedia.org/wiki/JSON"/>
     <hyperlink ref="A11" r:id="rId2" display="https://vi.wikipedia.org/wiki/JSON"/>
+    <hyperlink ref="A13" r:id="rId3" display="ja.wikipedia.org/wiki/JSON_Web_Token" tooltip="https://ja.wikipedia.org/wiki/JSON_Web_Token"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1293,10 +1390,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1307,132 +1404,188 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="25" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="35" customHeight="1" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="31" customHeight="1" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="27.75" spans="1:3">
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="31" customHeight="1" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="27.75" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://stackoverflow.com/questions/1560464/how-to-reformat-json-in-notepad  "/>
+    <hyperlink ref="A6" r:id="rId1" display="https://stackoverflow.com/questions/1560464/how-to-reformat-json-in-notepad  "/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="D8 B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>介绍</t>
     </r>
     <r>
@@ -256,12 +262,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,12 +301,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -308,21 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,62 +330,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,6 +404,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -434,19 +427,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -471,187 +471,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,8 +668,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,11 +713,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,30 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -747,171 +762,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -939,7 +939,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1289,7 +1288,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1358,17 +1357,17 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
     </row>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Microsoft_Office_XML</t>
+  </si>
+  <si>
+    <t>https://vi.wikipedia.org/wiki/XML</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Extensible_Stylesheet_Language</t>
+  </si>
+  <si>
+    <t>https://et.wikipedia.org/wiki/XML</t>
+  </si>
+  <si>
+    <t>https://ia.wikipedia.org/wiki/XML</t>
+  </si>
+  <si>
+    <t>https://edutechwiki.unige.ch/en/XPath_tutorial_-_basics</t>
+  </si>
+  <si>
+    <t>正在申请账号 不带nofollow</t>
   </si>
   <si>
     <t>目标网站</t>
@@ -217,6 +235,77 @@
   </si>
   <si>
     <t>https://echoua.com/best-online-web-editors/  </t>
+  </si>
+  <si>
+    <t>https://www.digitalocean.com/community/tutorials/how-to-work-with-json-in-javascript#</t>
+  </si>
+  <si>
+    <t>回复内容在审核</t>
+  </si>
+  <si>
+    <t>https://jsonformatter-online.com/</t>
+  </si>
+  <si>
+    <t>https://biggerthanthethreeofus.com/kitchen-reveal/?unapproved=34491&amp;moderation-hash=15344cd8db8eefaf0b8b216ddacd5116#comment-34491</t>
+  </si>
+  <si>
+    <t>https://ideastand.com/diy-corner-shelves-to-beautify-your-awkward-corner/?unapproved=93539&amp;moderation-hash=9ea70c31a1390d39c3893b26edcae4ad#comment-93539</t>
+  </si>
+  <si>
+    <t>https://kb.paessler.com/en/topic/26393-how-can-i-use-xpath-with-the-http-xml-rest-value-sensor</t>
+  </si>
+  <si>
+    <t>https://www.freeformatter.com/</t>
+  </si>
+  <si>
+    <t>https://habr.com/en/company/pvs-studio/blog/530180/</t>
+  </si>
+  <si>
+    <r>
+      <t>回复内容在审核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带nofollow</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.mssqltips.com/sqlservertip/2738/examples-of-using-xquery-to-update-xml-data-in-sql-server/#comments</t>
+  </si>
+  <si>
+    <t>https://www.liquid-technologies.com/</t>
   </si>
   <si>
     <r>
@@ -263,11 +352,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,14 +390,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,44 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -383,9 +432,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,12 +462,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -427,8 +512,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,15 +522,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,181 +565,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,47 +762,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +792,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -751,27 +856,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,19 +874,19 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -802,116 +896,116 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -938,7 +1032,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1285,94 +1384,120 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="127.75" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1389,10 +1514,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1404,155 +1529,221 @@
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="31" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="27.75" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="29" customHeight="1" spans="1:3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="28" customHeight="1" spans="1:3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="1" spans="1:3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="28" customHeight="1" spans="1:3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" ht="26" customHeight="1" spans="1:3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:3">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>回复内容在审核</t>
     </r>
     <r>
@@ -305,7 +311,57 @@
     <t>https://www.mssqltips.com/sqlservertip/2738/examples-of-using-xquery-to-update-xml-data-in-sql-server/#comments</t>
   </si>
   <si>
+    <r>
+      <t>回复内容在审核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带nofollow</t>
+    </r>
+  </si>
+  <si>
     <t>https://www.liquid-technologies.com/</t>
+  </si>
+  <si>
+    <t>https://www.yiiframework.com/extension/ejsonbehavior</t>
+  </si>
+  <si>
+    <t>不带nofollow, 不用审核</t>
+  </si>
+  <si>
+    <t>https://www.yiiframework.com/extension/dicr/yii2-json</t>
   </si>
   <si>
     <r>
@@ -352,9 +408,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -395,7 +451,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,6 +486,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -432,17 +533,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,87 +555,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -565,19 +621,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,61 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,91 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,8 +818,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,26 +887,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,186 +912,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1034,6 +1090,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1397,77 +1456,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1495,7 +1554,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1514,10 +1573,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1740,13 +1799,30 @@
         <v>58</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="1" spans="1:2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:B23"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="https://stackoverflow.com/questions/1560464/how-to-reformat-json-in-notepad  "/>
   </hyperlinks>
@@ -1771,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -240,13 +240,13 @@
     <t>https://www.digitalocean.com/community/tutorials/how-to-work-with-json-in-javascript#</t>
   </si>
   <si>
+    <t>https://jsonformatter-online.com/</t>
+  </si>
+  <si>
+    <t>https://biggerthanthethreeofus.com/kitchen-reveal/?unapproved=34491&amp;moderation-hash=15344cd8db8eefaf0b8b216ddacd5116#comment-34491</t>
+  </si>
+  <si>
     <t>回复内容在审核</t>
-  </si>
-  <si>
-    <t>https://jsonformatter-online.com/</t>
-  </si>
-  <si>
-    <t>https://biggerthanthethreeofus.com/kitchen-reveal/?unapproved=34491&amp;moderation-hash=15344cd8db8eefaf0b8b216ddacd5116#comment-34491</t>
   </si>
   <si>
     <t>https://ideastand.com/diy-corner-shelves-to-beautify-your-awkward-corner/?unapproved=93539&amp;moderation-hash=9ea70c31a1390d39c3893b26edcae4ad#comment-93539</t>
@@ -311,47 +311,6 @@
     <t>https://www.mssqltips.com/sqlservertip/2738/examples-of-using-xquery-to-update-xml-data-in-sql-server/#comments</t>
   </si>
   <si>
-    <r>
-      <t>回复内容在审核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带nofollow</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.liquid-technologies.com/</t>
   </si>
   <si>
@@ -362,6 +321,9 @@
   </si>
   <si>
     <t>https://www.yiiframework.com/extension/dicr/yii2-json</t>
+  </si>
+  <si>
+    <t>https://www.yiiframework.com/extension/magp/yii2-json-schema-validator#c20860</t>
   </si>
   <si>
     <r>
@@ -407,8 +369,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -451,14 +413,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,14 +509,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,32 +540,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,74 +561,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -621,6 +583,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -633,175 +739,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,78 +774,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -912,152 +802,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1573,10 +1535,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1743,33 +1705,29 @@
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" ht="28" customHeight="1" spans="1:3">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" ht="28" customHeight="1" spans="1:3">
@@ -1777,7 +1735,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>55</v>
@@ -1799,29 +1757,35 @@
         <v>58</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:2">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="https://stackoverflow.com/questions/1560464/how-to-reformat-json-in-notepad  "/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -326,6 +326,9 @@
     <t>https://www.yiiframework.com/extension/magp/yii2-json-schema-validator#c20860</t>
   </si>
   <si>
+    <t>https://habr.com/ru/post/159999/</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -369,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -413,7 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,45 +425,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,16 +488,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,9 +517,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,32 +527,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,6 +586,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -590,180 +767,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,6 +777,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -804,36 +864,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -847,179 +877,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1408,7 +1411,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1535,10 +1538,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1782,6 +1785,11 @@
         <v>63</v>
       </c>
       <c r="B24" s="11"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1811,7 +1819,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -243,22 +243,16 @@
     <t>https://jsonformatter-online.com/</t>
   </si>
   <si>
-    <t>https://biggerthanthethreeofus.com/kitchen-reveal/?unapproved=34491&amp;moderation-hash=15344cd8db8eefaf0b8b216ddacd5116#comment-34491</t>
-  </si>
-  <si>
-    <t>回复内容在审核</t>
-  </si>
-  <si>
     <t>https://ideastand.com/diy-corner-shelves-to-beautify-your-awkward-corner/?unapproved=93539&amp;moderation-hash=9ea70c31a1390d39c3893b26edcae4ad#comment-93539</t>
   </si>
   <si>
-    <t>https://kb.paessler.com/en/topic/26393-how-can-i-use-xpath-with-the-http-xml-rest-value-sensor</t>
+    <t>https://habr.com/en/company/pvs-studio/blog/530180/</t>
   </si>
   <si>
     <t>https://www.freeformatter.com/</t>
   </si>
   <si>
-    <t>https://habr.com/en/company/pvs-studio/blog/530180/</t>
+    <t>https://habr.com/ru/post/159999/</t>
   </si>
   <si>
     <r>
@@ -308,12 +302,12 @@
     </r>
   </si>
   <si>
+    <t>https://www.liquid-technologies.com/</t>
+  </si>
+  <si>
     <t>https://www.mssqltips.com/sqlservertip/2738/examples-of-using-xquery-to-update-xml-data-in-sql-server/#comments</t>
   </si>
   <si>
-    <t>https://www.liquid-technologies.com/</t>
-  </si>
-  <si>
     <t>https://www.yiiframework.com/extension/ejsonbehavior</t>
   </si>
   <si>
@@ -326,7 +320,7 @@
     <t>https://www.yiiframework.com/extension/magp/yii2-json-schema-validator#c20860</t>
   </si>
   <si>
-    <t>https://habr.com/ru/post/159999/</t>
+    <t>https://www.laruence.com/2020/07/09/6015.html</t>
   </si>
   <si>
     <r>
@@ -373,8 +367,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -422,6 +416,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -444,17 +446,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,15 +490,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +529,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +537,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,43 +545,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -586,12 +580,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -604,7 +646,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +700,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,139 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +771,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -800,39 +842,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,167 +871,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1538,10 +1532,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1713,87 +1707,68 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" ht="28" customHeight="1" spans="1:3">
+    <row r="17" ht="22" customHeight="1" spans="1:3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="22" customHeight="1" spans="1:3">
+    <row r="18" ht="26" customHeight="1" spans="1:3">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="28" customHeight="1" spans="1:3">
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
+      <c r="B19" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="22" customHeight="1" spans="1:1">
       <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" ht="23" customHeight="1" spans="1:3">
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="1:2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" ht="22" customHeight="1" spans="1:2">
+    <row r="22" ht="23" customHeight="1" spans="1:2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:2">
+      <c r="A23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" ht="22" customHeight="1" spans="1:1">
+      <c r="A24" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="https://stackoverflow.com/questions/1560464/how-to-reformat-json-in-notepad  "/>
@@ -1819,7 +1794,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -416,9 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,22 +430,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +462,90 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,98 +558,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -580,187 +580,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,17 +798,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,9 +824,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,28 +848,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,10 +877,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,19 +889,19 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -911,112 +911,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="10230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -323,42 +323,61 @@
     <t>https://www.laruence.com/2020/07/09/6015.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务具体一些操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程等</t>
-    </r>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR  </t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Backlinks</t>
+  </si>
+  <si>
+    <t>Referring Domains</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com</t>
+  </si>
+  <si>
+    <t>247 / 8</t>
+  </si>
+  <si>
+    <t>38 / 16</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/jsonformat</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/jsoncompare</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/json-to-xml</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/json-to-java</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/xmlformat</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/xml-to-json</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/htmlformat</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/jsformat</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/md5</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/base64-encode</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/color</t>
   </si>
 </sst>
 </file>
@@ -366,12 +385,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +400,19 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="9" tint="0.4"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -410,14 +442,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,13 +465,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,14 +500,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,42 +520,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,22 +553,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,7 +591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +600,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -580,192 +618,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -775,16 +813,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,43 +830,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,8 +854,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,156 +927,164 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1032,30 +1093,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1415,82 +1477,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1513,7 +1575,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1534,7 +1596,7 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1546,155 +1608,155 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" ht="31" customHeight="1" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" ht="27.75" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1702,8 +1764,8 @@
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1711,8 +1773,8 @@
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1720,8 +1782,8 @@
       <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1729,10 +1791,10 @@
       <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1745,7 +1807,7 @@
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1753,13 +1815,13 @@
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" ht="22" customHeight="1" spans="1:1">
       <c r="A24" t="s">
@@ -1781,21 +1843,188 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="D8 B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="58.625" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="29" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="34" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="34" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="10230" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>参考网站</t>
-  </si>
-  <si>
-    <t>https://github.com/hovancik/stretchly </t>
-  </si>
-  <si>
-    <t> https://jsonformatter.curiousconcept.com/</t>
   </si>
   <si>
     <t xml:space="preserve">www.online-toolz.com </t>
@@ -103,16 +97,13 @@
 已给站长发邮件了，等消息</t>
   </si>
   <si>
-    <t>https://techcommunity.microsoft.com/</t>
+    <t> https://jsonformatter.curiousconcept.com/</t>
   </si>
   <si>
     <t>https://geekflare.com/json-online-tools/</t>
   </si>
   <si>
     <t>介绍JSON工具。 文章可以借鉴</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/1560464/how-to-reformat-json-in-notepad  </t>
   </si>
   <si>
     <t>https://wiki.selfhtml.org/wiki/JSON</t>
@@ -323,6 +314,20 @@
     <t>https://www.laruence.com/2020/07/09/6015.html</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最新评论</t>
+    </r>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -385,10 +390,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -442,7 +447,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,34 +456,102 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,85 +572,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,187 +623,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,15 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -855,7 +851,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,26 +891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -906,6 +902,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,149 +932,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,9 +1095,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,15 +1110,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1466,7 +1471,7 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1477,82 +1482,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1594,10 +1599,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1618,223 +1623,196 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:3">
+    <row r="2" ht="28" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" ht="28" customHeight="1" spans="1:3">
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="1:3">
-      <c r="A8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:3">
-      <c r="A9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="31" customHeight="1" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="35" customHeight="1" spans="1:3">
-      <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="27.75" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" ht="31" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="29" customHeight="1" spans="1:3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" ht="27.75" spans="1:3">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:3">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1" spans="1:3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" ht="29" customHeight="1" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:3">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="1:1">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" ht="22" customHeight="1" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" ht="22" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" ht="23" customHeight="1" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B21" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" ht="22" customHeight="1" spans="1:1">
-      <c r="A24" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://stackoverflow.com/questions/1560464/how-to-reformat-json-in-notepad  "/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1845,8 +1823,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1859,39 +1837,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1906,7 +1884,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1917,7 +1895,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1928,7 +1906,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1939,7 +1917,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1954,7 +1932,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1965,7 +1943,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1980,7 +1958,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1991,7 +1969,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -2002,7 +1980,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -2017,7 +1995,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t> https://jsonformatter.curiousconcept.com/</t>
-  </si>
-  <si>
-    <t>https://geekflare.com/json-online-tools/</t>
-  </si>
-  <si>
-    <t>介绍JSON工具。 文章可以借鉴</t>
   </si>
   <si>
     <t>https://wiki.selfhtml.org/wiki/JSON</t>
@@ -315,6 +309,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -328,6 +328,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>博客园评论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带nofollow</t>
+    </r>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -390,10 +413,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -447,28 +470,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -476,17 +521,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,91 +580,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +595,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -623,19 +646,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,13 +790,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,145 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,41 +851,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,21 +879,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -929,152 +902,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,9 +1143,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1471,7 +1494,7 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1482,77 +1505,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1580,7 +1603,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1601,8 +1624,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1634,184 +1657,178 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="28" customHeight="1" spans="1:3">
+    <row r="3" ht="25" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="27" spans="1:3">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:3">
-      <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:3">
+      <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:3">
-      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:3">
+      <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="35" customHeight="1" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:3">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:3">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" ht="31" customHeight="1" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="31" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:3">
+      <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" spans="1:3">
+      <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="27.75" spans="1:3">
-      <c r="A11" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:3">
+      <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="29" customHeight="1" spans="1:3">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" ht="29" customHeight="1" spans="1:3">
+    </row>
+    <row r="13" ht="22" customHeight="1" spans="1:3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="1:3">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1" spans="1:3">
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" ht="23" customHeight="1" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="22" customHeight="1" spans="1:1">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5" t="s">
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:2">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="1:2">
+    <row r="18" ht="23" customHeight="1" spans="1:2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="1:2">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" ht="22" customHeight="1" spans="1:2">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" ht="21" customHeight="1" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" ht="22" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" ht="22" customHeight="1" spans="2:2">
+      <c r="B21" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1837,39 +1854,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1884,7 +1901,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1895,7 +1912,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1906,7 +1923,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1917,7 +1934,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1932,7 +1949,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1943,7 +1960,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1958,7 +1975,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1969,7 +1986,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1980,7 +1997,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1995,7 +2012,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>博客园评论</t>
     </r>
     <r>
@@ -351,6 +357,9 @@
     </r>
   </si>
   <si>
+    <t>优化首页样式</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -470,65 +479,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +500,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -549,55 +582,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,19 +622,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -646,187 +655,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,6 +873,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -879,15 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -899,21 +923,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,149 +964,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1622,10 +1631,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1824,6 +1833,11 @@
     <row r="21" ht="22" customHeight="1" spans="2:2">
       <c r="B21" s="15" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="2:2">
+      <c r="B22" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1854,39 +1868,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1901,7 +1915,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1912,7 +1926,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1923,7 +1937,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1934,7 +1948,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1949,7 +1963,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1960,7 +1974,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1975,7 +1989,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1986,7 +2000,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1997,7 +2011,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -2012,7 +2026,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -357,7 +357,10 @@
     </r>
   </si>
   <si>
-    <t>优化首页样式</t>
+    <t>http://www.gengkuangshui.com/</t>
+  </si>
+  <si>
+    <t>最新评论</t>
   </si>
   <si>
     <t>url</t>
@@ -423,9 +426,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -473,12 +476,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -486,7 +496,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,66 +585,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -575,13 +593,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -589,24 +600,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,19 +625,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -661,25 +664,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,19 +790,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,127 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,9 +869,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,36 +883,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,8 +905,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,167 +964,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,8 +1156,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1514,77 +1518,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1633,8 +1637,8 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1835,15 +1839,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" ht="19" customHeight="1" spans="2:2">
+    <row r="22" ht="19" customHeight="1" spans="1:2">
+      <c r="A22" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="B22" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B17:B19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A22" r:id="rId1" display="http://www.gengkuangshui.com/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1868,39 +1878,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1915,7 +1925,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1926,7 +1936,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1937,7 +1947,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1948,7 +1958,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1963,7 +1973,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1974,7 +1984,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1989,7 +1999,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -2000,7 +2010,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -2011,7 +2021,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -2026,7 +2036,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -237,97 +237,6 @@
     <t>https://www.freeformatter.com/</t>
   </si>
   <si>
-    <t>https://habr.com/ru/post/159999/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回复内容在审核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带nofollow</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.liquid-technologies.com/</t>
-  </si>
-  <si>
-    <t>https://www.mssqltips.com/sqlservertip/2738/examples-of-using-xquery-to-update-xml-data-in-sql-server/#comments</t>
-  </si>
-  <si>
-    <t>https://www.yiiframework.com/extension/ejsonbehavior</t>
-  </si>
-  <si>
-    <t>不带nofollow, 不用审核</t>
-  </si>
-  <si>
-    <t>https://www.yiiframework.com/extension/dicr/yii2-json</t>
-  </si>
-  <si>
-    <t>https://www.yiiframework.com/extension/magp/yii2-json-schema-validator#c20860</t>
-  </si>
-  <si>
-    <t>https://www.laruence.com/2020/07/09/6015.html</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最新评论</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -363,6 +272,32 @@
     <t>最新评论</t>
   </si>
   <si>
+    <t>https://www.laruence.com/2020/07/09/6015.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最新评论</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.itgrep.com/articles/4990.html/comment-page-13#comment-2195189</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -426,9 +361,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -476,6 +411,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -484,17 +520,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -504,37 +536,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,94 +560,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -658,187 +593,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,11 +804,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,6 +816,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,26 +850,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,6 +870,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,31 +899,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,138 +917,138 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,11 +1089,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1518,82 +1452,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1616,7 +1550,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1635,10 +1569,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1790,70 +1724,51 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="1:3">
-      <c r="A15" t="s">
+    <row r="15" ht="23" customHeight="1" spans="2:3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" ht="22" customHeight="1"/>
+    <row r="17" ht="24" customHeight="1" spans="2:2">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="2:2">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" ht="22" customHeight="1"/>
+    <row r="21" ht="22" customHeight="1" spans="2:2">
+      <c r="B21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="12" t="s">
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="1:2">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="22" customHeight="1" spans="1:1">
-      <c r="A16" t="s">
+    <row r="23" ht="24" customHeight="1" spans="1:2">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="13" t="s">
+    </row>
+    <row r="24" ht="22" customHeight="1" spans="1:1">
+      <c r="A24" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="18" ht="23" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" ht="21" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" ht="22" customHeight="1" spans="1:2">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" ht="22" customHeight="1" spans="2:2">
-      <c r="B21" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B17:B19"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" display="http://www.gengkuangshui.com/"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1878,39 +1793,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1925,7 +1840,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1936,7 +1851,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1947,7 +1862,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1958,7 +1873,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1973,7 +1888,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1984,7 +1899,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1999,7 +1914,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -2010,7 +1925,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -2021,7 +1936,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -2036,7 +1951,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
     <sheet name="外链" sheetId="3" r:id="rId2"/>
-    <sheet name="可写博客内容" sheetId="4" r:id="rId3"/>
+    <sheet name="mark" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -360,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -417,14 +417,118 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,133 +542,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -593,187 +593,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,20 +802,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,17 +832,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,26 +881,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,149 +902,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -298,6 +298,9 @@
     <t>https://www.itgrep.com/articles/4990.html/comment-page-13#comment-2195189</t>
   </si>
   <si>
+    <t>https://heng07.com/promotion.html</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -360,10 +363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -417,16 +420,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,71 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -510,41 +523,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,7 +555,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +563,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,37 +596,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,55 +746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,67 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,17 +805,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,20 +853,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,18 +872,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,166 +892,162 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1569,10 +1572,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1763,6 +1766,11 @@
     <row r="24" ht="22" customHeight="1" spans="1:1">
       <c r="A24" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="25" ht="21" customHeight="1" spans="1:1">
+      <c r="A25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1793,39 +1801,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1840,7 +1848,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1851,7 +1859,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1862,7 +1870,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1873,7 +1881,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1888,7 +1896,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1899,7 +1907,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1914,7 +1922,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1925,7 +1933,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1936,7 +1944,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1951,7 +1959,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>正在申请账号 不带nofollow</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/XML</t>
   </si>
   <si>
     <t>目标网站</t>
@@ -266,12 +269,6 @@
     </r>
   </si>
   <si>
-    <t>http://www.gengkuangshui.com/</t>
-  </si>
-  <si>
-    <t>最新评论</t>
-  </si>
-  <si>
     <t>https://www.laruence.com/2020/07/09/6015.html</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.itgrep.com/articles/4990.html/comment-page-13#comment-2195189</t>
-  </si>
-  <si>
     <t>https://heng07.com/promotion.html</t>
   </si>
   <si>
@@ -363,12 +357,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +413,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -427,7 +427,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,36 +472,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +502,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,24 +510,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,38 +524,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,15 +555,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,31 +596,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,151 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,11 +805,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,17 +844,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,15 +864,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,6 +885,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -905,153 +905,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,6 +1096,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1442,10 +1444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1557,11 +1559,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19">
+        <v>44223</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="https://ko.wikipedia.org/wiki/JSON"/>
     <hyperlink ref="A11" r:id="rId2" display="https://vi.wikipedia.org/wiki/JSON"/>
     <hyperlink ref="A13" r:id="rId3" display="ja.wikipedia.org/wiki/JSON_Web_Token" tooltip="https://ja.wikipedia.org/wiki/JSON_Web_Token"/>
+    <hyperlink ref="A24" r:id="rId4" display="https://it.wikipedia.org/wiki/XML" tooltip="https://it.wikipedia.org/wiki/XML"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1572,10 +1583,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1587,144 +1598,144 @@
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
       <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="31" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="27.75" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" ht="29" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="22" customHeight="1" spans="1:3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="23" customHeight="1" spans="2:3">
@@ -1744,33 +1755,23 @@
     <row r="20" ht="22" customHeight="1"/>
     <row r="21" ht="22" customHeight="1" spans="2:2">
       <c r="B21" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="2:2">
+      <c r="B22" s="12"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:2">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="12" t="s">
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:1">
+      <c r="A24" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="1" spans="1:1">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" ht="21" customHeight="1" spans="1:1">
-      <c r="A25" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1801,39 +1802,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1848,7 +1849,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1859,7 +1860,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1870,7 +1871,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1881,7 +1882,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1896,7 +1897,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1907,7 +1908,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1922,7 +1923,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1933,7 +1934,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1944,7 +1945,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1959,7 +1960,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/XML</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/JSON</t>
   </si>
   <si>
     <t>目标网站</t>
@@ -295,6 +298,9 @@
     <t>https://heng07.com/promotion.html</t>
   </si>
   <si>
+    <t>https://www.ambitiouskitchen.com/minestrone-soup-recipe/</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -358,9 +364,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -434,30 +440,112 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,103 +559,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -596,37 +602,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +758,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,133 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,21 +811,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -829,17 +820,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,6 +854,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -883,171 +894,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1565,6 +1571,11 @@
       </c>
       <c r="B24" s="19">
         <v>44223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1583,10 +1594,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1598,144 +1609,144 @@
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
       <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="31" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="27.75" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="29" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="22" customHeight="1" spans="1:3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="23" customHeight="1" spans="2:3">
@@ -1755,7 +1766,7 @@
     <row r="20" ht="22" customHeight="1"/>
     <row r="21" ht="22" customHeight="1" spans="2:2">
       <c r="B21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="2:2">
@@ -1763,15 +1774,20 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:1">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1802,39 +1818,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1849,7 +1865,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1860,7 +1876,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1871,7 +1887,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1882,7 +1898,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1897,7 +1913,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1908,7 +1924,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1923,7 +1939,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1934,7 +1950,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1945,7 +1961,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1960,7 +1976,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -426,14 +426,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,6 +477,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -485,7 +486,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,29 +508,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,23 +539,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,22 +574,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -602,31 +602,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,151 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,11 +829,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,21 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -875,6 +866,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,17 +900,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,10 +914,10 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,32 +926,32 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,97 +963,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1576,6 +1576,11 @@
     <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1596,8 +1601,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -272,6 +272,9 @@
     </r>
   </si>
   <si>
+    <t>https://kangry.net/</t>
+  </si>
+  <si>
     <t>https://www.laruence.com/2020/07/09/6015.html</t>
   </si>
   <si>
@@ -364,9 +367,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -428,12 +431,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,17 +466,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,36 +525,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -507,15 +532,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,45 +549,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,6 +562,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -602,187 +605,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,6 +814,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -823,8 +841,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,17 +862,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,176 +911,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,7 +1455,7 @@
   <sheetPr/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1601,8 +1604,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1774,25 +1777,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="19" customHeight="1" spans="2:2">
+    <row r="22" ht="19" customHeight="1" spans="1:2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
       <c r="B22" s="12"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:1">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1823,39 +1829,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1870,7 +1876,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1881,7 +1887,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1892,7 +1898,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1903,7 +1909,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1918,7 +1924,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1929,7 +1935,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1944,7 +1950,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1955,7 +1961,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1966,7 +1972,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1981,7 +1987,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -304,6 +304,9 @@
     <t>https://www.ambitiouskitchen.com/minestrone-soup-recipe/</t>
   </si>
   <si>
+    <t>https://www.browneyedbaker.com/slow-cooker-macaroni-and-cheese-recipe/</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -366,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -428,8 +431,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,18 +446,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,58 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -532,51 +476,110 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -617,19 +620,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,13 +728,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,133 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,6 +817,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -825,24 +837,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,6 +865,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -882,17 +885,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,152 +903,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1602,10 +1605,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1799,6 +1802,11 @@
     <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1829,39 +1837,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1876,7 +1884,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1887,7 +1895,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1898,7 +1906,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1909,7 +1917,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1924,7 +1932,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1935,7 +1943,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1950,7 +1958,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1961,7 +1969,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1972,7 +1980,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1987,7 +1995,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
     <sheet name="外链" sheetId="3" r:id="rId2"/>
     <sheet name="mark" sheetId="4" r:id="rId3"/>
+    <sheet name="一些国内博客" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -363,16 +364,40 @@
   <si>
     <t>https://www.jsonformatting.com/color</t>
   </si>
+  <si>
+    <t>https://www.hojun.cn/links</t>
+  </si>
+  <si>
+    <t>https://immyw.com/link/</t>
+  </si>
+  <si>
+    <t>https://zk-wz.gitee.io/2020/08/24/wpinrasp/</t>
+  </si>
+  <si>
+    <t>http://impressionyang.top/archives/</t>
+  </si>
+  <si>
+    <t>https://imqinhao.cn/2020/05/19/not-allow-F12/</t>
+  </si>
+  <si>
+    <t>https://www.wztlink1013.com/friends/</t>
+  </si>
+  <si>
+    <t>https://www.moonster.life/index.php/2020/03/03/769.html#comment-3416</t>
+  </si>
+  <si>
+    <t>https://hewanyue.com/links/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -431,6 +456,148 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -438,148 +605,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -608,19 +633,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,163 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,21 +852,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -856,11 +866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,6 +901,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,149 +942,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1607,7 +1632,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2008,4 +2033,64 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>https://ru.wikipedia.org/wiki/JSON</t>
+  </si>
+  <si>
+    <t>https://pl.wikipedia.org/wiki/XML</t>
   </si>
   <si>
     <t>目标网站</t>
@@ -394,9 +397,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -458,6 +461,112 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,60 +581,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -537,54 +596,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,14 +608,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -639,19 +642,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,157 +804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,22 +849,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,8 +872,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,15 +904,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,6 +925,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -942,146 +945,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1481,10 +1484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1612,6 +1615,11 @@
     <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1645,144 +1653,144 @@
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
       <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="31" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="27.75" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="29" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" ht="22" customHeight="1" spans="1:3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="23" customHeight="1" spans="2:3">
@@ -1802,36 +1810,36 @@
     <row r="20" ht="22" customHeight="1"/>
     <row r="21" ht="22" customHeight="1" spans="2:2">
       <c r="B21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="12"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:1">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1862,39 +1870,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2">
         <v>1.9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1909,7 +1917,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1920,7 +1928,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1931,7 +1939,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1942,7 +1950,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1957,7 +1965,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1968,7 +1976,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1983,7 +1991,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1994,7 +2002,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -2005,7 +2013,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -2020,7 +2028,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
@@ -2040,7 +2048,7 @@
   <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2051,42 +2059,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     </r>
   </si>
   <si>
-    <t>https://kangry.net/</t>
+    <t>http://kangry.net/blog/</t>
   </si>
   <si>
     <t>https://www.laruence.com/2020/07/09/6015.html</t>
@@ -459,6 +459,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -467,7 +526,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -481,19 +563,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,57 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -566,22 +589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,19 +603,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -636,187 +636,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,11 +845,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,30 +893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,6 +904,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,15 +934,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -948,10 +948,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,19 +960,19 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -982,112 +982,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1486,7 +1486,7 @@
   <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1640,7 +1640,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2049,7 +2049,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -391,6 +391,12 @@
   <si>
     <t>https://hewanyue.com/links/</t>
   </si>
+  <si>
+    <t>https://u.mr90.top/other/message/</t>
+  </si>
+  <si>
+    <t>https://oy6090.top/messageboard/</t>
+  </si>
 </sst>
 </file>
 
@@ -399,8 +405,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -457,6 +463,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -468,9 +481,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,6 +517,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -489,125 +614,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -636,49 +642,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,133 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,39 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -912,7 +885,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,6 +907,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -945,149 +951,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1640,7 +1646,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2046,13 +2052,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
   </cols>
@@ -2097,6 +2103,16 @@
         <v>85</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -466,7 +466,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,139 +609,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -642,66 +642,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -714,115 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,60 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -919,6 +865,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,16 +909,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,134 +966,134 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1646,8 +1646,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2054,8 +2054,8 @@
   <sheetPr/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -403,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -466,7 +466,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,139 +609,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -642,187 +642,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,20 +851,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,21 +881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -906,6 +888,33 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,15 +930,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,149 +951,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1646,8 +1646,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
     <sheet name="外链" sheetId="3" r:id="rId2"/>
     <sheet name="mark" sheetId="4" r:id="rId3"/>
     <sheet name="一些国内博客" sheetId="5" r:id="rId4"/>
+    <sheet name="技术博客" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -397,22 +398,37 @@
   <si>
     <t>https://oy6090.top/messageboard/</t>
   </si>
+  <si>
+    <t>博客园</t>
+  </si>
+  <si>
+    <t>思否</t>
+  </si>
+  <si>
+    <t>V2EX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -437,12 +453,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -463,6 +473,20 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -472,22 +496,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,8 +557,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,6 +603,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,97 +624,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -642,79 +652,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,103 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,6 +861,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -862,6 +881,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,6 +941,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -891,233 +958,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1132,13 +1143,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1601,7 +1611,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1646,7 +1656,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1658,117 +1668,117 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="31" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" ht="27.75" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1776,8 +1786,8 @@
       <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1785,8 +1795,8 @@
       <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1794,28 +1804,28 @@
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" ht="23" customHeight="1" spans="2:3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" ht="22" customHeight="1"/>
     <row r="17" ht="24" customHeight="1" spans="2:2">
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" ht="23" customHeight="1" spans="2:2">
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" ht="22" customHeight="1"/>
     <row r="21" ht="22" customHeight="1" spans="2:2">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1823,13 +1833,13 @@
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:2">
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1875,173 +1885,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1.9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2117,4 +2127,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -483,7 +483,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,8 +496,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,8 +565,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,89 +611,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -652,187 +652,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,37 +865,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,7 +889,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,15 +926,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -958,16 +934,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,138 +976,138 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,9 +1145,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1513,82 +1510,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1616,10 +1613,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>44223</v>
       </c>
     </row>
@@ -1654,10 +1651,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1809,59 +1806,42 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="2:3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" ht="22" customHeight="1"/>
-    <row r="17" ht="24" customHeight="1" spans="2:2">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" ht="23" customHeight="1" spans="2:2">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" ht="21" customHeight="1" spans="2:2">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" ht="22" customHeight="1"/>
-    <row r="21" ht="22" customHeight="1" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="15" ht="22" customHeight="1"/>
+    <row r="16" ht="22" customHeight="1" spans="2:2">
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" ht="19" customHeight="1" spans="1:2">
-      <c r="A22" t="s">
+    <row r="17" ht="19" customHeight="1" spans="1:2">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:2">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" ht="21" customHeight="1" spans="1:1">
-      <c r="A24" t="s">
+    <row r="19" ht="21" customHeight="1" spans="1:1">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B17:B19"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2134,7 +2114,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -312,6 +312,12 @@
     <t>https://www.browneyedbaker.com/slow-cooker-macaroni-and-cheese-recipe/</t>
   </si>
   <si>
+    <t>https://www.raychase.net/tag/%E4%B8%AA%E4%BA%BA%E4%BB%B7%E5%80%BC</t>
+  </si>
+  <si>
+    <t>https://confrage.jp/%e3%82%aa%e3%83%b3%e3%83%a9%e3%82%a4%e3%83%b3%e3%82%a8%e3%83%87%e3%82%a3%e3%82%bf%e4%b8%80%e8%a6%a7/#comment-31</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -413,10 +419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -483,16 +489,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,14 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -521,32 +601,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -558,72 +624,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -652,49 +658,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,133 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,8 +870,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,45 +956,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -934,176 +964,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1651,10 +1657,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1839,6 +1845,22 @@
     <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1866,39 +1888,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3">
         <v>1.9</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -1913,7 +1935,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -1924,7 +1946,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -1935,7 +1957,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -1946,7 +1968,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
@@ -1961,7 +1983,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4">
@@ -1972,7 +1994,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
@@ -1987,7 +2009,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
@@ -1998,7 +2020,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
@@ -2009,7 +2031,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
@@ -2024,7 +2046,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -2055,52 +2077,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2122,17 +2144,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -248,6 +248,9 @@
     <t>https://www.freeformatter.com/</t>
   </si>
   <si>
+    <t>https://9bie.org/</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -318,6 +321,23 @@
     <t>https://confrage.jp/%e3%82%aa%e3%83%b3%e3%83%a9%e3%82%a4%e3%83%b3%e3%82%a8%e3%83%87%e3%82%a3%e3%82%bf%e4%b8%80%e8%a6%a7/#comment-31</t>
   </si>
   <si>
+    <t>https://maybeiwill.me/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最新评论，需要审核</t>
+    </r>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -419,10 +439,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -482,12 +502,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -511,36 +613,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -548,37 +620,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,37 +650,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -658,187 +678,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,24 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -896,6 +898,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,6 +928,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -924,17 +946,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,162 +970,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,10 +1677,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1812,55 +1832,67 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="22" customHeight="1"/>
+    <row r="15" ht="22" customHeight="1" spans="1:1">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="16" ht="22" customHeight="1" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="13"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:1">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1888,39 +1920,39 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3">
         <v>1.9</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -1935,7 +1967,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -1946,7 +1978,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -1957,7 +1989,7 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -1968,7 +2000,7 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
@@ -1983,7 +2015,7 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4">
@@ -1994,7 +2026,7 @@
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
@@ -2009,7 +2041,7 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
@@ -2020,7 +2052,7 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
@@ -2031,7 +2063,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
@@ -2046,7 +2078,7 @@
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -2066,7 +2098,7 @@
   <sheetPr/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2077,52 +2109,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2144,17 +2176,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
     <sheet name="外链" sheetId="3" r:id="rId2"/>
     <sheet name="mark" sheetId="4" r:id="rId3"/>
-    <sheet name="一些国内博客" sheetId="5" r:id="rId4"/>
+    <sheet name="一些博客" sheetId="5" r:id="rId4"/>
     <sheet name="技术博客" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -165,125 +165,88 @@
     <t>回复了，很好的分享文章</t>
   </si>
   <si>
-    <t>https://www.davidbcalhoun.com/2011/when-to-base64-encode-images-and-when-not-to/   </t>
-  </si>
-  <si>
-    <t>https://codebeautify.org/</t>
-  </si>
-  <si>
-    <t>http://123.jser.us/  </t>
-  </si>
-  <si>
-    <t>给作者发了微博消息，等待回复</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>testing.gershon.info/reporter/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>  </t>
-    </r>
-  </si>
-  <si>
-    <t>www.journaldev.com/2321/gson-example-tutorial-parse-json  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一篇不错的文章，已收集。
-很厉害的资源，一定要收藏。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>🌟</t>
-    </r>
-  </si>
-  <si>
-    <t>https://echoua.com/best-online-web-editors/  </t>
-  </si>
-  <si>
-    <t>https://www.digitalocean.com/community/tutorials/how-to-work-with-json-in-javascript#</t>
+    <t>https://ideastand.com/diy-corner-shelves-to-beautify-your-awkward-corner/?unapproved=93539&amp;moderation-hash=9ea70c31a1390d39c3893b26edcae4ad#comment-93539</t>
+  </si>
+  <si>
+    <t>家居</t>
   </si>
   <si>
     <t>https://jsonformatter-online.com/</t>
   </si>
   <si>
-    <t>https://ideastand.com/diy-corner-shelves-to-beautify-your-awkward-corner/?unapproved=93539&amp;moderation-hash=9ea70c31a1390d39c3893b26edcae4ad#comment-93539</t>
-  </si>
-  <si>
-    <t>https://habr.com/en/company/pvs-studio/blog/530180/</t>
-  </si>
-  <si>
-    <t>https://www.freeformatter.com/</t>
-  </si>
-  <si>
-    <t>https://9bie.org/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>博客园评论</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带nofollow</t>
-    </r>
-  </si>
-  <si>
-    <t>http://kangry.net/blog/</t>
-  </si>
-  <si>
-    <t>https://www.laruence.com/2020/07/09/6015.html</t>
+    <t>https://www.ambitiouskitchen.com/minestrone-soup-recipe/</t>
+  </si>
+  <si>
+    <t>做饭的</t>
+  </si>
+  <si>
+    <t>https://www.browneyedbaker.com/slow-cooker-macaroni-and-cheese-recipe/</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR  </t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Backlinks</t>
+  </si>
+  <si>
+    <t>Referring Domains</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com</t>
+  </si>
+  <si>
+    <t>247 / 8</t>
+  </si>
+  <si>
+    <t>38 / 16</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/jsonformat</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/jsoncompare</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/json-to-xml</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/json-to-java</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/xmlformat</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/xml-to-json</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/htmlformat</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/jsformat</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/md5</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/base64-encode</t>
+  </si>
+  <si>
+    <t>https://www.jsonformatting.com/color</t>
+  </si>
+  <si>
+    <t>http://impressionyang.top/archives/</t>
+  </si>
+  <si>
+    <t>https://www.wztlink1013.com/friends/</t>
+  </si>
+  <si>
+    <t>https://www.raychase.net/tag/%E4%B8%AA%E4%BA%BA%E4%BB%B7%E5%80%BC</t>
   </si>
   <si>
     <r>
@@ -306,18 +269,6 @@
     </r>
   </si>
   <si>
-    <t>https://heng07.com/promotion.html</t>
-  </si>
-  <si>
-    <t>https://www.ambitiouskitchen.com/minestrone-soup-recipe/</t>
-  </si>
-  <si>
-    <t>https://www.browneyedbaker.com/slow-cooker-macaroni-and-cheese-recipe/</t>
-  </si>
-  <si>
-    <t>https://www.raychase.net/tag/%E4%B8%AA%E4%BA%BA%E4%BB%B7%E5%80%BC</t>
-  </si>
-  <si>
     <t>https://confrage.jp/%e3%82%aa%e3%83%b3%e3%83%a9%e3%82%a4%e3%83%b3%e3%82%a8%e3%83%87%e3%82%a3%e3%82%bf%e4%b8%80%e8%a6%a7/#comment-31</t>
   </si>
   <si>
@@ -325,6 +276,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -338,91 +295,13 @@
     </r>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR  </t>
-  </si>
-  <si>
-    <t>UR</t>
-  </si>
-  <si>
-    <t>Backlinks</t>
-  </si>
-  <si>
-    <t>Referring Domains</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com</t>
-  </si>
-  <si>
-    <t>247 / 8</t>
-  </si>
-  <si>
-    <t>38 / 16</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/jsonformat</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/jsoncompare</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/json-to-xml</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/json-to-java</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/xmlformat</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/xml-to-json</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/htmlformat</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/jsformat</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/md5</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/base64-encode</t>
-  </si>
-  <si>
-    <t>https://www.jsonformatting.com/color</t>
-  </si>
-  <si>
-    <t>https://www.hojun.cn/links</t>
-  </si>
-  <si>
-    <t>https://immyw.com/link/</t>
-  </si>
-  <si>
-    <t>https://zk-wz.gitee.io/2020/08/24/wpinrasp/</t>
-  </si>
-  <si>
-    <t>http://impressionyang.top/archives/</t>
-  </si>
-  <si>
-    <t>https://imqinhao.cn/2020/05/19/not-allow-F12/</t>
-  </si>
-  <si>
-    <t>https://www.wztlink1013.com/friends/</t>
-  </si>
-  <si>
-    <t>https://www.moonster.life/index.php/2020/03/03/769.html#comment-3416</t>
-  </si>
-  <si>
-    <t>https://hewanyue.com/links/</t>
-  </si>
-  <si>
-    <t>https://u.mr90.top/other/message/</t>
-  </si>
-  <si>
-    <t>https://oy6090.top/messageboard/</t>
+    <t>https://www.laruence.com/2020/07/09/6015.html</t>
+  </si>
+  <si>
+    <t>http://kangry.net/blog/</t>
+  </si>
+  <si>
+    <t>https://oracleblog.org/</t>
   </si>
   <si>
     <t>博客园</t>
@@ -440,8 +319,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -502,21 +381,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,30 +409,82 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -575,81 +499,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -678,19 +557,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,163 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,17 +766,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,32 +779,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -946,11 +793,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,6 +824,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -984,158 +852,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,14 +1048,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1525,8 +1404,8 @@
   <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1677,10 +1556,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1691,208 +1570,96 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1" spans="1:3">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="22" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" ht="31" customHeight="1" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:3">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" ht="27.75" spans="1:3">
-      <c r="A10" s="11" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="29" customHeight="1" spans="1:3">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="22" customHeight="1" spans="1:3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="1" spans="1:1">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" ht="22" customHeight="1" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" ht="19" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" ht="21" customHeight="1" spans="1:1">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>63</v>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1919,173 +1686,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5">
         <v>1.9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
         <v>6</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
         <v>4</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
+      <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
+      <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
         <v>4</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2096,65 +1863,79 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>92</v>
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2176,17 +1957,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -304,6 +304,12 @@
     <t>https://oracleblog.org/</t>
   </si>
   <si>
+    <t>https://blog.iccfish.com/</t>
+  </si>
+  <si>
+    <t>https://iluke.me/2018/%e8%96%85%e7%be%8a%e6%af%9b%e3%80%81%e6%97%b6%e9%97%b4%e5%92%8c%e9%87%91%e9%92%b1/#comment-3914</t>
+  </si>
+  <si>
     <t>博客园</t>
   </si>
   <si>
@@ -318,9 +324,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -381,14 +387,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,6 +405,50 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,60 +462,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,60 +491,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -557,13 +563,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,90 +725,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,78 +744,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,11 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,15 +792,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,21 +807,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,6 +843,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -863,16 +860,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,134 +887,134 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1410,7 @@
   <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -1863,10 +1869,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1936,6 +1942,22 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1957,17 +1979,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -310,6 +310,9 @@
     <t>https://iluke.me/2018/%e8%96%85%e7%be%8a%e6%af%9b%e3%80%81%e6%97%b6%e9%97%b4%e5%92%8c%e9%87%91%e9%92%b1/#comment-3914</t>
   </si>
   <si>
+    <t>https://www.geekzu.cn/free</t>
+  </si>
+  <si>
     <t>博客园</t>
   </si>
   <si>
@@ -326,8 +329,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -393,23 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,9 +419,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,19 +463,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,50 +485,59 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -563,187 +566,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,17 +775,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,6 +823,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -841,11 +847,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,161 +872,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1869,10 +1872,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1958,6 +1961,14 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1979,17 +1990,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -313,6 +313,12 @@
     <t>https://www.geekzu.cn/free</t>
   </si>
   <si>
+    <t>https://kn007.net/topics/nginx-1-19-4-new-feature-recommendation/</t>
+  </si>
+  <si>
+    <t>https://www.zrj96.com/post-27.html/comment-page-1#comment-2125</t>
+  </si>
+  <si>
     <t>博客园</t>
   </si>
   <si>
@@ -327,10 +333,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -390,16 +396,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,12 +420,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,22 +441,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,73 +530,20 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -566,43 +572,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,30 +710,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -656,97 +722,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,17 +784,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +816,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,21 +868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -875,149 +881,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1872,10 +1878,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1969,6 +1975,22 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1990,17 +2012,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="mark" sheetId="4" r:id="rId3"/>
     <sheet name="一些博客" sheetId="5" r:id="rId4"/>
     <sheet name="技术博客" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="A1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -310,6 +312,15 @@
     <t>https://iluke.me/2018/%e8%96%85%e7%be%8a%e6%af%9b%e3%80%81%e6%97%b6%e9%97%b4%e5%92%8c%e9%87%91%e9%92%b1/#comment-3914</t>
   </si>
   <si>
+    <t>similars.net</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>biglistofwebsites.com</t>
+  </si>
+  <si>
     <t>博客园</t>
   </si>
   <si>
@@ -317,6 +328,42 @@
   </si>
   <si>
     <t>V2EX</t>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/ask/146205</t>
+  </si>
+  <si>
+    <t>如何迭代JSON数据以获得URL的？ - 问答 - 云+社区 - 腾讯云</t>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/ask/75386</t>
+  </si>
+  <si>
+    <t>显示比“没有JSON对象可以被解码”更好的错误消息如何解决？ - 问答 - 云+社区 - 腾讯云</t>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/ask/77805</t>
+  </si>
+  <si>
+    <t>在JSON中格式化“true”的正确方式是什么？ - 问答 - 云+社区 - 腾讯云</t>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/ask/79391</t>
+  </si>
+  <si>
+    <t>jsonlint.com site:mlog.club</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>jsonlint.com site:cnblogs.com</t>
+  </si>
+  <si>
+    <t>https://mlog.club/article/47129</t>
+  </si>
+  <si>
+    <t>https://mlog.club/article/2536718</t>
   </si>
 </sst>
 </file>
@@ -326,8 +373,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -335,6 +382,13 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -386,8 +440,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,22 +538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,15 +553,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,71 +569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,15 +582,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +592,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,187 +622,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,17 +831,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,8 +843,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,21 +860,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,7 +883,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,207 +928,218 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1421,82 +1500,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1519,15 +1598,15 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="26">
         <v>44223</v>
       </c>
     </row>
@@ -1576,68 +1655,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1645,10 +1724,10 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1656,7 +1735,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1664,7 +1743,7 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1692,173 +1771,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="13">
         <v>1.9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="14">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="14">
         <v>9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14">
         <v>4</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14">
         <v>6</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14">
         <v>4</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14">
         <v>4</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14">
         <v>4</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14">
         <v>4</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1869,10 +1948,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1895,7 +1974,7 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1903,7 +1982,7 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1911,7 +1990,7 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1924,7 +2003,7 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1932,7 +2011,7 @@
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1940,7 +2019,7 @@
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1948,7 +2027,7 @@
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1956,8 +2035,24 @@
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1978,18 +2073,250 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
+      <c r="A1" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
+      <c r="A2" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="97.125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4">
+        <v>76</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6">
+        <v>77</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6">
         <v>78</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="6">
+        <v>78</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6">
+        <v>77</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="13.5" spans="1:14">
+      <c r="A7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6">
+        <v>78</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="67.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
     <sheet name="外链" sheetId="3" r:id="rId2"/>
     <sheet name="mark" sheetId="4" r:id="rId3"/>
     <sheet name="一些博客" sheetId="5" r:id="rId4"/>
-    <sheet name="技术博客" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
-    <sheet name="A1" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="A1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -321,15 +320,6 @@
     <t>biglistofwebsites.com</t>
   </si>
   <si>
-    <t>博客园</t>
-  </si>
-  <si>
-    <t>思否</t>
-  </si>
-  <si>
-    <t>V2EX</t>
-  </si>
-  <si>
     <t>https://cloud.tencent.com/developer/ask/146205</t>
   </si>
   <si>
@@ -371,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -438,6 +428,56 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -448,6 +488,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -456,28 +534,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -486,45 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,16 +558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,28 +572,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -622,91 +612,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,91 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,15 +824,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -860,21 +841,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,6 +865,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,10 +924,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,138 +936,138 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1086,26 +1076,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,82 +1484,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1603,10 +1587,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>44223</v>
       </c>
     </row>
@@ -1655,68 +1639,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1724,10 +1708,10 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1771,173 +1755,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>1.9</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12">
         <v>9</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>7</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12">
         <v>4</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
         <v>10</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>9</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12">
         <v>6</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12">
         <v>4</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12">
         <v>4</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12">
         <v>4</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>1</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12">
         <v>4</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1950,8 +1934,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1974,7 +1958,7 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1982,7 +1966,7 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1990,7 +1974,7 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2003,7 +1987,7 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2011,7 +1995,7 @@
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2019,7 +2003,7 @@
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2027,7 +2011,7 @@
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2035,7 +2019,7 @@
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2064,27 +2048,141 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="97.125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C1" s="2">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="3">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2096,211 +2194,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="97.125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="4">
-        <v>76</v>
-      </c>
-      <c r="D1" s="4">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="6">
-        <v>77</v>
-      </c>
-      <c r="D2" s="6">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="6">
-        <v>78</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="6">
-        <v>78</v>
-      </c>
-      <c r="D4" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="6">
-        <v>77</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="6">
-        <v>78</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="6">
-        <v>78</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2311,12 +2207,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -311,6 +311,12 @@
     <t>https://iluke.me/2018/%e8%96%85%e7%be%8a%e6%af%9b%e3%80%81%e6%97%b6%e9%97%b4%e5%92%8c%e9%87%91%e9%92%b1/#comment-3914</t>
   </si>
   <si>
+    <t>https://itlu.org/articles/2686.html/comment-page-2#comment-33663</t>
+  </si>
+  <si>
+    <t>不错的中文博客，友链也有不少可以看</t>
+  </si>
+  <si>
     <t>similars.net</t>
   </si>
   <si>
@@ -431,42 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,6 +451,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -518,6 +496,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -544,14 +566,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -564,14 +578,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -612,187 +618,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,30 +823,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +861,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -907,27 +924,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,134 +942,134 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1935,13 +1941,13 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="2" max="2" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2023,20 +2029,28 @@
         <v>70</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2062,10 +2076,10 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2">
         <v>76</v>
@@ -2078,10 +2092,10 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3">
         <v>77</v>
@@ -2094,10 +2108,10 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3">
         <v>78</v>
@@ -2110,10 +2124,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3">
         <v>78</v>
@@ -2126,10 +2140,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <v>77</v>
@@ -2142,10 +2156,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3">
         <v>78</v>
@@ -2158,10 +2172,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3">
         <v>78</v>
@@ -2174,15 +2188,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2207,12 +2221,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -311,10 +311,16 @@
     <t>https://iluke.me/2018/%e8%96%85%e7%be%8a%e6%af%9b%e3%80%81%e6%97%b6%e9%97%b4%e5%92%8c%e9%87%91%e9%92%b1/#comment-3914</t>
   </si>
   <si>
+    <t>https://www.huhexian.com/3794.html</t>
+  </si>
+  <si>
+    <t>不错的中文博客，友链也有不少可以看</t>
+  </si>
+  <si>
+    <t>本身博客不能做外链</t>
+  </si>
+  <si>
     <t>https://itlu.org/articles/2686.html/comment-page-2#comment-33663</t>
-  </si>
-  <si>
-    <t>不错的中文博客，友链也有不少可以看</t>
   </si>
   <si>
     <t>similars.net</t>
@@ -367,10 +373,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -437,7 +443,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,33 +511,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -496,23 +539,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,46 +572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,67 +624,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,115 +792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,6 +829,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,15 +892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -877,35 +909,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,10 +936,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,16 +948,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,119 +967,119 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1096,6 +1102,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,82 +1499,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1593,10 +1602,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="25">
         <v>44223</v>
       </c>
     </row>
@@ -1645,46 +1654,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1692,21 +1701,21 @@
       <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1717,7 +1726,7 @@
       <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1761,173 +1770,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>1.9</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13">
         <v>9</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13">
         <v>10</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>9</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13">
         <v>4</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13">
         <v>6</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13">
         <v>4</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13">
         <v>4</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1938,16 +1947,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="2" max="2" width="42.75" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2029,31 +2039,46 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2076,10 +2101,10 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2">
         <v>76</v>
@@ -2092,10 +2117,10 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3">
         <v>77</v>
@@ -2108,10 +2133,10 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3">
         <v>78</v>
@@ -2124,10 +2149,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3">
         <v>78</v>
@@ -2140,10 +2165,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3">
         <v>77</v>
@@ -2156,10 +2181,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3">
         <v>78</v>
@@ -2172,10 +2197,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3">
         <v>78</v>
@@ -2188,15 +2213,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2221,12 +2246,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -373,9 +373,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -442,8 +442,136 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,136 +584,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +606,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -624,19 +630,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,163 +762,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,41 +835,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,6 +863,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -916,6 +896,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,16 +925,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,16 +954,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,119 +973,119 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1095,17 +1101,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,7 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1129,7 +1139,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1499,82 +1509,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1597,15 +1607,15 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="27">
         <v>44223</v>
       </c>
     </row>
@@ -1654,68 +1664,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1723,10 +1733,10 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1734,7 +1744,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1742,7 +1752,7 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1770,173 +1780,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>1.9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15">
         <v>9</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="15">
         <v>7</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>9</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15">
         <v>6</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
         <v>4</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15">
         <v>4</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15">
         <v>4</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1950,7 +1960,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1974,7 +1984,7 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1982,7 +1992,7 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1990,7 +2000,7 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2003,7 +2013,7 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2011,7 +2021,7 @@
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2019,15 +2029,15 @@
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:2">
+      <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2035,7 +2045,7 @@
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2043,10 +2053,10 @@
       <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2054,16 +2064,16 @@
       <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2071,7 +2081,7 @@
       <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
     </row>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -311,15 +311,48 @@
     <t>https://iluke.me/2018/%e8%96%85%e7%be%8a%e6%af%9b%e3%80%81%e6%97%b6%e9%97%b4%e5%92%8c%e9%87%91%e9%92%b1/#comment-3914</t>
   </si>
   <si>
+    <t>https://www.mezzp.com/archives/830.html</t>
+  </si>
+  <si>
+    <t>https://xlesun.com/shangan.html?jscroll=comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最新评论，待定</t>
+  </si>
+  <si>
+    <t>https://www.hannahwu.com/a-flooded-city-after-the-pouring-rain/comment-page-1/#comment-31689</t>
+  </si>
+  <si>
+    <t>https://qqzmly.com/</t>
+  </si>
+  <si>
+    <t>最新评论</t>
+  </si>
+  <si>
+    <t>http://blog.cloudtopsky.com/</t>
+  </si>
+  <si>
+    <t>首页最新评论</t>
+  </si>
+  <si>
+    <t>https://chidd.net/2017/12/10/basic-knowledges-for-bitcoin-new-user.html#comment-9766</t>
+  </si>
+  <si>
+    <t>https://oneinf.com/tech/4604.html/comment-page-1?unapproved=15365&amp;moderation-hash=99c35d1d11e04d5de382a4c1e2254a32#comment-15365</t>
+  </si>
+  <si>
+    <t>https://magiclen.org/nginx-rewrite/</t>
+  </si>
+  <si>
+    <t>不错的中文博客，友链也有不少可以看</t>
+  </si>
+  <si>
+    <t>本身博客不能做外链</t>
+  </si>
+  <si>
     <t>https://www.huhexian.com/3794.html</t>
   </si>
   <si>
-    <t>不错的中文博客，友链也有不少可以看</t>
-  </si>
-  <si>
-    <t>本身博客不能做外链</t>
-  </si>
-  <si>
     <t>https://itlu.org/articles/2686.html/comment-page-2#comment-33663</t>
   </si>
   <si>
@@ -330,6 +363,12 @@
   </si>
   <si>
     <t>biglistofwebsites.com</t>
+  </si>
+  <si>
+    <t>https://www.gznotes.com/</t>
+  </si>
+  <si>
+    <t>门大佬的老大博客</t>
   </si>
   <si>
     <t>https://cloud.tencent.com/developer/ask/146205</t>
@@ -442,6 +481,120 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -451,75 +604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,57 +618,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -636,13 +675,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,163 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,15 +878,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -859,15 +889,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,8 +911,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,6 +928,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,11 +969,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,10 +981,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,138 +993,138 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1111,6 +1150,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1509,82 +1549,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1607,15 +1647,15 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="28">
         <v>44223</v>
       </c>
     </row>
@@ -1664,46 +1704,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1711,21 +1751,21 @@
       <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1736,7 +1776,7 @@
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1744,7 +1784,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1752,7 +1792,7 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1780,173 +1820,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="15">
         <v>1.9</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16">
         <v>9</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>7</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>9</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16">
         <v>4</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16">
         <v>4</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16">
         <v>4</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1957,13 +1997,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="2" max="2" width="42.75" customWidth="1"/>
@@ -2033,13 +2073,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:2">
+    <row r="10" s="7" customFormat="1" spans="1:21">
       <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -2049,45 +2108,127 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2111,10 +2252,10 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2">
         <v>76</v>
@@ -2127,10 +2268,10 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3">
         <v>77</v>
@@ -2143,10 +2284,10 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3">
         <v>78</v>
@@ -2159,10 +2300,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3">
         <v>78</v>
@@ -2175,10 +2316,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3">
         <v>77</v>
@@ -2191,10 +2332,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3">
         <v>78</v>
@@ -2207,10 +2348,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3">
         <v>78</v>
@@ -2223,15 +2364,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2256,12 +2397,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -241,9 +241,6 @@
     <t>https://www.jsonformatting.com/color</t>
   </si>
   <si>
-    <t>http://impressionyang.top/archives/</t>
-  </si>
-  <si>
     <t>https://www.wztlink1013.com/friends/</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
     </r>
   </si>
   <si>
+    <t>做菜的网站，偶尔评论</t>
+  </si>
+  <si>
     <t>https://www.laruence.com/2020/07/09/6015.html</t>
   </si>
   <si>
@@ -314,12 +314,6 @@
     <t>https://www.mezzp.com/archives/830.html</t>
   </si>
   <si>
-    <t>https://xlesun.com/shangan.html?jscroll=comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最新评论，待定</t>
-  </si>
-  <si>
     <t>https://www.hannahwu.com/a-flooded-city-after-the-pouring-rain/comment-page-1/#comment-31689</t>
   </si>
   <si>
@@ -354,15 +348,6 @@
   </si>
   <si>
     <t>https://itlu.org/articles/2686.html/comment-page-2#comment-33663</t>
-  </si>
-  <si>
-    <t>similars.net</t>
-  </si>
-  <si>
-    <t>待定</t>
-  </si>
-  <si>
-    <t>biglistofwebsites.com</t>
   </si>
   <si>
     <t>https://www.gznotes.com/</t>
@@ -412,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -481,13 +466,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -496,6 +474,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -503,7 +488,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,11 +540,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,21 +601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -555,76 +608,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,7 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,181 +666,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,9 +901,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,42 +962,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,10 +972,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,138 +984,138 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1141,21 +1132,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1164,7 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1179,11 +1178,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1549,82 +1551,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1647,15 +1649,15 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="33">
         <v>44223</v>
       </c>
     </row>
@@ -1704,68 +1706,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1773,10 +1775,10 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1784,7 +1786,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1792,7 +1794,7 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1820,173 +1822,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="19">
         <v>1.9</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20">
         <v>9</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="20">
         <v>7</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20">
         <v>4</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20">
         <v>10</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="20">
         <v>9</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="20">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20">
         <v>4</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20">
         <v>6</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20">
         <v>4</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20">
         <v>4</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20">
         <v>4</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20">
         <v>4</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1997,10 +1999,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2015,220 +2017,194 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>67</v>
+      <c r="B4" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:21">
-      <c r="A10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>70</v>
+      <c r="A11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>70</v>
+      <c r="A12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>77</v>
+      <c r="A13" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>70</v>
+      <c r="A14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>80</v>
+      <c r="A15" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B16" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="C21" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B24" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2252,10 +2228,10 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2">
         <v>76</v>
@@ -2268,10 +2244,10 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3">
         <v>77</v>
@@ -2284,10 +2260,10 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3">
         <v>78</v>
@@ -2300,10 +2276,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3">
         <v>78</v>
@@ -2316,10 +2292,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3">
         <v>77</v>
@@ -2332,10 +2308,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3">
         <v>78</v>
@@ -2348,10 +2324,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3">
         <v>78</v>
@@ -2364,15 +2340,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2397,12 +2373,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -335,13 +335,25 @@
     <t>https://oneinf.com/tech/4604.html/comment-page-1?unapproved=15365&amp;moderation-hash=99c35d1d11e04d5de382a4c1e2254a32#comment-15365</t>
   </si>
   <si>
+    <t>https://www.riba2534.cn/?p=305#comment-9578</t>
+  </si>
+  <si>
+    <t>https://bestcherish.com/shi-yong-redis-he-bao-ta-wang-zhan-jia-su.html</t>
+  </si>
+  <si>
+    <t>https://blog.shaoxiao.net/2020/12/11/%e6%8d%a2%e5%88%b0%e4%ba%86%e8%85%be%e8%ae%af%e4%ba%91/#comment-992</t>
+  </si>
+  <si>
+    <t>https://cuiqingcai.com/</t>
+  </si>
+  <si>
+    <t>不错的中文博客，友链也有不少可以看</t>
+  </si>
+  <si>
+    <t>本身博客不能做外链</t>
+  </si>
+  <si>
     <t>https://magiclen.org/nginx-rewrite/</t>
-  </si>
-  <si>
-    <t>不错的中文博客，友链也有不少可以看</t>
-  </si>
-  <si>
-    <t>本身博客不能做外链</t>
   </si>
   <si>
     <t>https://www.huhexian.com/3794.html</t>
@@ -397,10 +409,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -466,6 +478,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -474,12 +561,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -487,15 +597,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,37 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -547,67 +620,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -660,19 +672,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,19 +816,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,121 +846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,21 +882,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -901,29 +898,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,6 +935,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -957,25 +978,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,138 +996,138 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1148,6 +1160,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1551,82 +1567,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1649,15 +1665,15 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="35">
         <v>44223</v>
       </c>
     </row>
@@ -1706,46 +1722,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1753,21 +1769,21 @@
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1775,10 +1791,10 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1786,7 +1802,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1794,7 +1810,7 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1822,173 +1838,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="21">
         <v>1.9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22">
         <v>9</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="22">
         <v>7</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22">
         <v>4</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22">
         <v>4</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="22">
         <v>9</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
         <v>4</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22">
         <v>6</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <v>1</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
         <v>4</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
         <v>4</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22">
         <v>4</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22">
         <v>4</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1999,10 +2015,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2156,55 +2172,118 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="14"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B17" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="B18" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B30" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="C30" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="16" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>90</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2228,10 +2307,10 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2">
         <v>76</v>
@@ -2244,10 +2323,10 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3">
         <v>77</v>
@@ -2260,10 +2339,10 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3">
         <v>78</v>
@@ -2276,10 +2355,10 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3">
         <v>78</v>
@@ -2292,10 +2371,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3">
         <v>77</v>
@@ -2308,10 +2387,10 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3">
         <v>78</v>
@@ -2324,10 +2403,10 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3">
         <v>78</v>
@@ -2340,15 +2419,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2373,12 +2452,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/外链/外链.xlsx
+++ b/外链/外链.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="wikipedia" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="一些博客" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
     <sheet name="A1" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/XML  </t>
   </si>
@@ -403,6 +404,43 @@
   <si>
     <t>https://mlog.club/article/2536718</t>
   </si>
+  <si>
+    <t>现货</t>
+  </si>
+  <si>
+    <t>合约</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -426,13 +464,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -479,14 +517,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,7 +539,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,22 +577,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +607,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -582,13 +635,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,14 +643,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -621,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +668,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -654,12 +704,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -672,19 +716,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,151 +884,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +940,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -916,21 +990,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,214 +1022,216 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,28 +1240,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1567,82 +1628,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1665,15 +1726,15 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="40">
         <v>44223</v>
       </c>
     </row>
@@ -1722,68 +1783,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="29" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1791,10 +1852,10 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1802,7 +1863,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1810,7 +1871,7 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1838,173 +1899,173 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="26">
         <v>1.9</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27">
         <v>9</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="27">
         <v>7</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27">
         <v>4</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27">
         <v>4</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27">
         <v>10</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="27">
         <v>9</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="27">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27">
         <v>4</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27">
         <v>6</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="27">
         <v>1</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:5">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27">
         <v>4</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27">
         <v>4</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27">
         <v>4</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="27">
         <v>1</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1" spans="1:5">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27">
         <v>4</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2017,7 +2078,7 @@
   <sheetPr/>
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2034,215 +2095,215 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="22"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="22"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="14"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="24" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2250,34 +2311,34 @@
       <c r="A31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="23" t="s">
         <v>88</v>
       </c>
-  